--- a/template Excel/Accountting/PersonalIncomeTax.xlsx
+++ b/template Excel/Accountting/PersonalIncomeTax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CC6AEB-A29D-4188-BF12-59DF610697D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACCC187-8F4F-46D7-AEFF-C61568CD49E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F48ABC90-A7FB-4FEE-8793-42D29732DA9A}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{F48ABC90-A7FB-4FEE-8793-42D29732DA9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,19 +48,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,11 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +416,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,11 +424,11 @@
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/template Excel/Accountting/PersonalIncomeTax.xlsx
+++ b/template Excel/Accountting/PersonalIncomeTax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACCC187-8F4F-46D7-AEFF-C61568CD49E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4454827B-1D41-4133-B744-49863DBECADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{F48ABC90-A7FB-4FEE-8793-42D29732DA9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F48ABC90-A7FB-4FEE-8793-42D29732DA9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
